--- a/public/uploads/cotizacion-Datos-${NODO_CIU_NOMBRE}.xlsx
+++ b/public/uploads/cotizacion-Datos-${NODO_CIU_NOMBRE}.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Christian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CR\NED\nedetel-master\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE5E5CF-AF71-4915-BF59-FF17BABF72FA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EF4DA8-5128-49A8-987D-15FFFC268EE2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cotizacion_Datos" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -3012,7 +3013,7 @@
   <dimension ref="A1:AMK749"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
